--- a/target/test-classes/testdata/database1.xlsx
+++ b/target/test-classes/testdata/database1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="8925" tabRatio="693" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="8925" tabRatio="858" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="seller1" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="seller13" sheetId="9" r:id="rId13"/>
     <sheet name="sellerlist" sheetId="3" r:id="rId14"/>
     <sheet name="result" sheetId="17" r:id="rId15"/>
+    <sheet name="try" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="53">
   <si>
     <t>asin</t>
   </si>
@@ -191,28 +192,7 @@
     <t>max</t>
   </si>
   <si>
-    <t>25/10--9:23</t>
-  </si>
-  <si>
-    <t>25/10--9:24</t>
-  </si>
-  <si>
-    <t>25/10--9:25</t>
-  </si>
-  <si>
-    <t>25/10--9:26</t>
-  </si>
-  <si>
-    <t>25/10--9:27</t>
-  </si>
-  <si>
-    <t>25/10--9:28</t>
-  </si>
-  <si>
-    <t>25/10--9:29</t>
-  </si>
-  <si>
-    <t>25/10--9:30</t>
+    <t>seller0</t>
   </si>
 </sst>
 </file>
@@ -519,10 +499,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -531,48 +511,39 @@
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
-        <v>20.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
-        <v>19.940000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -580,26 +551,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
-        <v>20.69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="C7">
-        <v>19.440000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -612,9 +577,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -622,26 +589,23 @@
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -649,7 +613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -657,7 +621,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -665,7 +629,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -673,7 +637,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -691,10 +655,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -703,26 +667,23 @@
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -730,7 +691,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -738,7 +699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -746,7 +707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -754,7 +715,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -772,9 +733,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -782,26 +745,23 @@
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -809,7 +769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -817,7 +777,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -825,7 +785,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -833,7 +793,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -851,10 +811,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -863,26 +823,23 @@
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -890,7 +847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -898,7 +855,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -906,7 +863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -914,7 +871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1102,7 +1059,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1189,15 +1148,2804 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O166"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>18.3</v>
+      </c>
+      <c r="D2">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="F2">
+        <v>21.5</v>
+      </c>
+      <c r="G2">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>18.55</v>
+      </c>
+      <c r="J2">
+        <v>24.98</v>
+      </c>
+      <c r="K2">
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>18.53</v>
+      </c>
+      <c r="O2">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="C3">
+        <v>18.98</v>
+      </c>
+      <c r="D3">
+        <v>19.32</v>
+      </c>
+      <c r="E3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F3">
+        <v>21.95</v>
+      </c>
+      <c r="G3">
+        <v>19.5</v>
+      </c>
+      <c r="H3">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="I3">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>24</v>
+      </c>
+      <c r="L3">
+        <v>24.31</v>
+      </c>
+      <c r="M3">
+        <v>19.55</v>
+      </c>
+      <c r="O3">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="C4">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="D4">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="E4">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="F4">
+        <v>21.95</v>
+      </c>
+      <c r="G4">
+        <v>19.5</v>
+      </c>
+      <c r="H4">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="I4">
+        <v>21.5</v>
+      </c>
+      <c r="J4">
+        <v>25</v>
+      </c>
+      <c r="K4">
+        <v>24.98</v>
+      </c>
+      <c r="L4">
+        <v>24.5</v>
+      </c>
+      <c r="M4">
+        <v>19.8</v>
+      </c>
+      <c r="O4">
+        <v>18.98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>19.87</v>
+      </c>
+      <c r="C5">
+        <v>19.29</v>
+      </c>
+      <c r="D5">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="E5">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="F5">
+        <v>21.95</v>
+      </c>
+      <c r="G5">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H5">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I5">
+        <v>21.95</v>
+      </c>
+      <c r="J5">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>25</v>
+      </c>
+      <c r="L5">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>21.29</v>
+      </c>
+      <c r="O5">
+        <v>18.98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="C6">
+        <v>19.32</v>
+      </c>
+      <c r="D6">
+        <v>19.84</v>
+      </c>
+      <c r="E6">
+        <v>20.93</v>
+      </c>
+      <c r="F6">
+        <v>21.95</v>
+      </c>
+      <c r="G6">
+        <v>19.75</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>25</v>
+      </c>
+      <c r="K6">
+        <v>25</v>
+      </c>
+      <c r="L6">
+        <v>25.6</v>
+      </c>
+      <c r="M6">
+        <v>21.98</v>
+      </c>
+      <c r="O6">
+        <v>18.98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="D7">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="E7">
+        <v>20.95</v>
+      </c>
+      <c r="F7">
+        <v>21.95</v>
+      </c>
+      <c r="G7">
+        <v>19.97</v>
+      </c>
+      <c r="H7">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="I7">
+        <v>22</v>
+      </c>
+      <c r="J7">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>25</v>
+      </c>
+      <c r="L7">
+        <v>26</v>
+      </c>
+      <c r="M7">
+        <v>22.2</v>
+      </c>
+      <c r="O7">
+        <v>19.48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C8">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="D8">
+        <v>19.93</v>
+      </c>
+      <c r="E8">
+        <v>20.97</v>
+      </c>
+      <c r="F8">
+        <v>22.37</v>
+      </c>
+      <c r="G8">
+        <v>20.45</v>
+      </c>
+      <c r="H8">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <v>25</v>
+      </c>
+      <c r="K8">
+        <v>25</v>
+      </c>
+      <c r="L8">
+        <v>26</v>
+      </c>
+      <c r="M8">
+        <v>28</v>
+      </c>
+      <c r="O8">
+        <v>20.98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="C9">
+        <v>19.8</v>
+      </c>
+      <c r="D9">
+        <v>19.98</v>
+      </c>
+      <c r="E9">
+        <v>21.2</v>
+      </c>
+      <c r="F9">
+        <v>22.5</v>
+      </c>
+      <c r="G9">
+        <v>20.97</v>
+      </c>
+      <c r="H9">
+        <v>21.05</v>
+      </c>
+      <c r="I9">
+        <v>22.1</v>
+      </c>
+      <c r="J9">
+        <v>25</v>
+      </c>
+      <c r="K9">
+        <v>25</v>
+      </c>
+      <c r="L9">
+        <v>26</v>
+      </c>
+      <c r="M9">
+        <v>29.99</v>
+      </c>
+      <c r="O9">
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>20.16</v>
+      </c>
+      <c r="C10">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="D10">
+        <v>19.98</v>
+      </c>
+      <c r="E10">
+        <v>21.22</v>
+      </c>
+      <c r="F10">
+        <v>22.95</v>
+      </c>
+      <c r="G10">
+        <v>21.95</v>
+      </c>
+      <c r="H10">
+        <v>21.68</v>
+      </c>
+      <c r="I10">
+        <v>22.2</v>
+      </c>
+      <c r="J10">
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>25</v>
+      </c>
+      <c r="L10">
+        <v>26</v>
+      </c>
+      <c r="M10">
+        <v>30.15</v>
+      </c>
+      <c r="O10">
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="C11">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="D11">
+        <v>20.14</v>
+      </c>
+      <c r="E11">
+        <v>21.22</v>
+      </c>
+      <c r="F11">
+        <v>22.95</v>
+      </c>
+      <c r="H11">
+        <v>21.99</v>
+      </c>
+      <c r="I11">
+        <v>22.4</v>
+      </c>
+      <c r="J11">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>25</v>
+      </c>
+      <c r="L11">
+        <v>26</v>
+      </c>
+      <c r="M11">
+        <v>30.16</v>
+      </c>
+      <c r="O11">
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="C12">
+        <v>19.84</v>
+      </c>
+      <c r="D12">
+        <v>20.14</v>
+      </c>
+      <c r="E12">
+        <v>21.38</v>
+      </c>
+      <c r="F12">
+        <v>22.95</v>
+      </c>
+      <c r="H12">
+        <v>22.22</v>
+      </c>
+      <c r="I12">
+        <v>22.45</v>
+      </c>
+      <c r="J12">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>25</v>
+      </c>
+      <c r="L12">
+        <v>26</v>
+      </c>
+      <c r="M12">
+        <v>30.4</v>
+      </c>
+      <c r="O12">
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>20.2</v>
+      </c>
+      <c r="C13">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D13">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="E13">
+        <v>21.5</v>
+      </c>
+      <c r="F13">
+        <v>22.95</v>
+      </c>
+      <c r="H13">
+        <v>22.9</v>
+      </c>
+      <c r="I13">
+        <v>22.48</v>
+      </c>
+      <c r="J13">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>25</v>
+      </c>
+      <c r="L13">
+        <v>26</v>
+      </c>
+      <c r="M13">
+        <v>30.78</v>
+      </c>
+      <c r="O13">
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>20.2</v>
+      </c>
+      <c r="C14">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="D14">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="E14">
+        <v>21.8</v>
+      </c>
+      <c r="F14">
+        <v>22.95</v>
+      </c>
+      <c r="H14">
+        <v>22.9</v>
+      </c>
+      <c r="I14">
+        <v>22.5</v>
+      </c>
+      <c r="J14">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>25</v>
+      </c>
+      <c r="L14">
+        <v>26</v>
+      </c>
+      <c r="M14">
+        <v>31.65</v>
+      </c>
+      <c r="O14">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>20.2</v>
+      </c>
+      <c r="C15">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="D15">
+        <v>20.2</v>
+      </c>
+      <c r="E15">
+        <v>21.82</v>
+      </c>
+      <c r="F15">
+        <v>22.99</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>22.5</v>
+      </c>
+      <c r="J15">
+        <v>26</v>
+      </c>
+      <c r="K15">
+        <v>25</v>
+      </c>
+      <c r="L15">
+        <v>26</v>
+      </c>
+      <c r="M15">
+        <v>45.8</v>
+      </c>
+      <c r="O15">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>20.45</v>
+      </c>
+      <c r="C16">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="D16">
+        <v>20.2</v>
+      </c>
+      <c r="E16">
+        <v>21.85</v>
+      </c>
+      <c r="F16">
+        <v>22.99</v>
+      </c>
+      <c r="H16">
+        <v>30.9</v>
+      </c>
+      <c r="I16">
+        <v>22.5</v>
+      </c>
+      <c r="J16">
+        <v>26</v>
+      </c>
+      <c r="K16">
+        <v>25</v>
+      </c>
+      <c r="L16">
+        <v>27</v>
+      </c>
+      <c r="O16">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>20.86</v>
+      </c>
+      <c r="C17">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="D17">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="E17">
+        <v>21.85</v>
+      </c>
+      <c r="F17">
+        <v>22.99</v>
+      </c>
+      <c r="H17">
+        <v>31</v>
+      </c>
+      <c r="I17">
+        <v>22.95</v>
+      </c>
+      <c r="J17">
+        <v>26</v>
+      </c>
+      <c r="K17">
+        <v>25</v>
+      </c>
+      <c r="L17">
+        <v>27</v>
+      </c>
+      <c r="O17">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>20.88</v>
+      </c>
+      <c r="C18">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="D18">
+        <v>20.45</v>
+      </c>
+      <c r="E18">
+        <v>21.87</v>
+      </c>
+      <c r="F18">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>31.05</v>
+      </c>
+      <c r="I18">
+        <v>22.98</v>
+      </c>
+      <c r="J18">
+        <v>26</v>
+      </c>
+      <c r="K18">
+        <v>25</v>
+      </c>
+      <c r="L18">
+        <v>27</v>
+      </c>
+      <c r="O18">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>20.94</v>
+      </c>
+      <c r="C19">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="D19">
+        <v>20.5</v>
+      </c>
+      <c r="E19">
+        <v>22</v>
+      </c>
+      <c r="F19">
+        <v>23.49</v>
+      </c>
+      <c r="H19">
+        <v>32</v>
+      </c>
+      <c r="I19">
+        <v>23</v>
+      </c>
+      <c r="J19">
+        <v>27</v>
+      </c>
+      <c r="K19">
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <v>27</v>
+      </c>
+      <c r="O19">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>20.95</v>
+      </c>
+      <c r="C20">
+        <v>20.05</v>
+      </c>
+      <c r="D20">
+        <v>20.58</v>
+      </c>
+      <c r="E20">
+        <v>22</v>
+      </c>
+      <c r="F20">
+        <v>23.49</v>
+      </c>
+      <c r="H20">
+        <v>32.47</v>
+      </c>
+      <c r="I20">
+        <v>23.05</v>
+      </c>
+      <c r="J20">
+        <v>27</v>
+      </c>
+      <c r="K20">
+        <v>25</v>
+      </c>
+      <c r="L20">
+        <v>27</v>
+      </c>
+      <c r="O20">
+        <v>25.62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>20.98</v>
+      </c>
+      <c r="C21">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D21">
+        <v>20.64</v>
+      </c>
+      <c r="E21">
+        <v>22.19</v>
+      </c>
+      <c r="F21">
+        <v>23.49</v>
+      </c>
+      <c r="H21">
+        <v>34</v>
+      </c>
+      <c r="I21">
+        <v>23.25</v>
+      </c>
+      <c r="J21">
+        <v>27</v>
+      </c>
+      <c r="K21">
+        <v>25</v>
+      </c>
+      <c r="L21">
+        <v>27</v>
+      </c>
+      <c r="O21">
+        <v>26.98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>21.2</v>
+      </c>
+      <c r="C22">
+        <v>20.11</v>
+      </c>
+      <c r="D22">
+        <v>20.74</v>
+      </c>
+      <c r="E22">
+        <v>22.23</v>
+      </c>
+      <c r="F22">
+        <v>23.95</v>
+      </c>
+      <c r="I22">
+        <v>23.5</v>
+      </c>
+      <c r="J22">
+        <v>27</v>
+      </c>
+      <c r="K22">
+        <v>25</v>
+      </c>
+      <c r="L22">
+        <v>27</v>
+      </c>
+      <c r="O22">
+        <v>29.98</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>21.22</v>
+      </c>
+      <c r="C23">
+        <v>20.13</v>
+      </c>
+      <c r="D23">
+        <v>20.8</v>
+      </c>
+      <c r="E23">
+        <v>22.25</v>
+      </c>
+      <c r="F23">
+        <v>23.99</v>
+      </c>
+      <c r="I23">
+        <v>23.6</v>
+      </c>
+      <c r="J23">
+        <v>27</v>
+      </c>
+      <c r="K23">
+        <v>25</v>
+      </c>
+      <c r="L23">
+        <v>27</v>
+      </c>
+      <c r="O23">
+        <v>29.98</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>21.44</v>
+      </c>
+      <c r="C24">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="D24">
+        <v>20.89</v>
+      </c>
+      <c r="E24">
+        <v>22.35</v>
+      </c>
+      <c r="F24">
+        <v>24.49</v>
+      </c>
+      <c r="I24">
+        <v>23.85</v>
+      </c>
+      <c r="J24">
+        <v>27</v>
+      </c>
+      <c r="K24">
+        <v>25</v>
+      </c>
+      <c r="L24">
+        <v>35.99</v>
+      </c>
+      <c r="O24">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>21.46</v>
+      </c>
+      <c r="C25">
+        <v>20.2</v>
+      </c>
+      <c r="D25">
+        <v>20.89</v>
+      </c>
+      <c r="E25">
+        <v>22.44</v>
+      </c>
+      <c r="F25">
+        <v>25.49</v>
+      </c>
+      <c r="I25">
+        <v>24</v>
+      </c>
+      <c r="J25">
+        <v>27</v>
+      </c>
+      <c r="K25">
+        <v>25</v>
+      </c>
+      <c r="L25">
+        <v>37</v>
+      </c>
+      <c r="O25">
+        <v>39.979999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>21.75</v>
+      </c>
+      <c r="C26">
+        <v>20.2</v>
+      </c>
+      <c r="D26">
+        <v>20.94</v>
+      </c>
+      <c r="E26">
+        <v>22.45</v>
+      </c>
+      <c r="F26">
+        <v>25.49</v>
+      </c>
+      <c r="I26">
+        <v>31</v>
+      </c>
+      <c r="J26">
+        <v>27</v>
+      </c>
+      <c r="K26">
+        <v>25</v>
+      </c>
+      <c r="L26">
+        <v>37.85</v>
+      </c>
+      <c r="O26">
+        <v>44.98</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>21.85</v>
+      </c>
+      <c r="C27">
+        <v>20.2</v>
+      </c>
+      <c r="D27">
+        <v>20.95</v>
+      </c>
+      <c r="E27">
+        <v>22.5</v>
+      </c>
+      <c r="F27">
+        <v>25.49</v>
+      </c>
+      <c r="I27">
+        <v>33</v>
+      </c>
+      <c r="J27">
+        <v>27</v>
+      </c>
+      <c r="K27">
+        <v>25</v>
+      </c>
+      <c r="L27">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>21.85</v>
+      </c>
+      <c r="C28">
+        <v>20.2</v>
+      </c>
+      <c r="D28">
+        <v>20.95</v>
+      </c>
+      <c r="E28">
+        <v>22.5</v>
+      </c>
+      <c r="F28">
+        <v>25.49</v>
+      </c>
+      <c r="I28">
+        <v>33</v>
+      </c>
+      <c r="J28">
+        <v>27</v>
+      </c>
+      <c r="K28">
+        <v>25</v>
+      </c>
+      <c r="L28">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>21.85</v>
+      </c>
+      <c r="C29">
+        <v>20.2</v>
+      </c>
+      <c r="D29">
+        <v>20.98</v>
+      </c>
+      <c r="E29">
+        <v>22.8</v>
+      </c>
+      <c r="F29">
+        <v>25.49</v>
+      </c>
+      <c r="I29">
+        <v>33.25</v>
+      </c>
+      <c r="J29">
+        <v>35</v>
+      </c>
+      <c r="K29">
+        <v>25</v>
+      </c>
+      <c r="L29">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>21.89</v>
+      </c>
+      <c r="C30">
+        <v>20.2</v>
+      </c>
+      <c r="D30">
+        <v>20.98</v>
+      </c>
+      <c r="E30">
+        <v>22.89</v>
+      </c>
+      <c r="F30">
+        <v>25.99</v>
+      </c>
+      <c r="I30">
+        <v>33.270000000000003</v>
+      </c>
+      <c r="J30">
+        <v>35</v>
+      </c>
+      <c r="K30">
+        <v>26</v>
+      </c>
+      <c r="L30">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>21.95</v>
+      </c>
+      <c r="C31">
+        <v>20.2</v>
+      </c>
+      <c r="D31">
+        <v>20.99</v>
+      </c>
+      <c r="E31">
+        <v>22.9</v>
+      </c>
+      <c r="F31">
+        <v>25.99</v>
+      </c>
+      <c r="I31">
+        <v>33.5</v>
+      </c>
+      <c r="J31">
+        <v>39.99</v>
+      </c>
+      <c r="K31">
+        <v>26</v>
+      </c>
+      <c r="L31">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>21.95</v>
+      </c>
+      <c r="C32">
+        <v>20.2</v>
+      </c>
+      <c r="D32">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>22.94</v>
+      </c>
+      <c r="F32">
+        <v>25.99</v>
+      </c>
+      <c r="I32">
+        <v>33.5</v>
+      </c>
+      <c r="J32">
+        <v>39.99</v>
+      </c>
+      <c r="K32">
+        <v>26</v>
+      </c>
+      <c r="L32">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>22.04</v>
+      </c>
+      <c r="C33">
+        <v>20.2</v>
+      </c>
+      <c r="D33">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>22.96</v>
+      </c>
+      <c r="F33">
+        <v>26.99</v>
+      </c>
+      <c r="I33">
+        <v>35.01</v>
+      </c>
+      <c r="J33">
+        <v>39.99</v>
+      </c>
+      <c r="K33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>22.11</v>
+      </c>
+      <c r="C34">
+        <v>20.2</v>
+      </c>
+      <c r="D34">
+        <v>21.03</v>
+      </c>
+      <c r="E34">
+        <v>22.96</v>
+      </c>
+      <c r="F34">
+        <v>27.49</v>
+      </c>
+      <c r="I34">
+        <v>35.22</v>
+      </c>
+      <c r="J34">
+        <v>39.99</v>
+      </c>
+      <c r="K34">
+        <v>26.99</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>22.22</v>
+      </c>
+      <c r="C35">
+        <v>20.2</v>
+      </c>
+      <c r="D35">
+        <v>21.2</v>
+      </c>
+      <c r="E35">
+        <v>22.98</v>
+      </c>
+      <c r="F35">
+        <v>27.49</v>
+      </c>
+      <c r="I35">
+        <v>35.880000000000003</v>
+      </c>
+      <c r="J35">
+        <v>39.99</v>
+      </c>
+      <c r="K35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>22.49</v>
+      </c>
+      <c r="C36">
+        <v>20.2</v>
+      </c>
+      <c r="D36">
+        <v>21.21</v>
+      </c>
+      <c r="E36">
+        <v>22.98</v>
+      </c>
+      <c r="F36">
+        <v>29.99</v>
+      </c>
+      <c r="I36">
+        <v>36</v>
+      </c>
+      <c r="J36">
+        <v>39.99</v>
+      </c>
+      <c r="K36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>22.84</v>
+      </c>
+      <c r="C37">
+        <v>20.2</v>
+      </c>
+      <c r="D37">
+        <v>21.42</v>
+      </c>
+      <c r="E37">
+        <v>22.98</v>
+      </c>
+      <c r="F37">
+        <v>30.28</v>
+      </c>
+      <c r="I37">
+        <v>36</v>
+      </c>
+      <c r="J37">
+        <v>39.99</v>
+      </c>
+      <c r="K37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>22.9</v>
+      </c>
+      <c r="C38">
+        <v>20.2</v>
+      </c>
+      <c r="D38">
+        <v>21.44</v>
+      </c>
+      <c r="E38">
+        <v>23.34</v>
+      </c>
+      <c r="F38">
+        <v>30.99</v>
+      </c>
+      <c r="I38">
+        <v>36</v>
+      </c>
+      <c r="J38">
+        <v>39.99</v>
+      </c>
+      <c r="K38">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>22.95</v>
+      </c>
+      <c r="C39">
+        <v>20.2</v>
+      </c>
+      <c r="D39">
+        <v>21.44</v>
+      </c>
+      <c r="E39">
+        <v>23.98</v>
+      </c>
+      <c r="F39">
+        <v>31.28</v>
+      </c>
+      <c r="I39">
+        <v>36.65</v>
+      </c>
+      <c r="J39">
+        <v>39.99</v>
+      </c>
+      <c r="K39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>22.99</v>
+      </c>
+      <c r="C40">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="D40">
+        <v>21.46</v>
+      </c>
+      <c r="E40">
+        <v>24</v>
+      </c>
+      <c r="F40">
+        <v>31.49</v>
+      </c>
+      <c r="I40">
+        <v>36.85</v>
+      </c>
+      <c r="J40">
+        <v>39.99</v>
+      </c>
+      <c r="K40">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>22.99</v>
+      </c>
+      <c r="C41">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="D41">
+        <v>21.5</v>
+      </c>
+      <c r="E41">
+        <v>24</v>
+      </c>
+      <c r="F41">
+        <v>31.49</v>
+      </c>
+      <c r="I41">
+        <v>36.99</v>
+      </c>
+      <c r="J41">
+        <v>45</v>
+      </c>
+      <c r="K41">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>22.99</v>
+      </c>
+      <c r="C42">
+        <v>20.45</v>
+      </c>
+      <c r="D42">
+        <v>21.69</v>
+      </c>
+      <c r="E42">
+        <v>24.2</v>
+      </c>
+      <c r="F42">
+        <v>31.49</v>
+      </c>
+      <c r="I42">
+        <v>36.99</v>
+      </c>
+      <c r="J42">
+        <v>45</v>
+      </c>
+      <c r="K42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>23.33</v>
+      </c>
+      <c r="C43">
+        <v>20.5</v>
+      </c>
+      <c r="D43">
+        <v>21.79</v>
+      </c>
+      <c r="E43">
+        <v>24.2</v>
+      </c>
+      <c r="F43">
+        <v>31.49</v>
+      </c>
+      <c r="I43">
+        <v>37</v>
+      </c>
+      <c r="J43">
+        <v>45</v>
+      </c>
+      <c r="K43">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>23.99</v>
+      </c>
+      <c r="C44">
+        <v>20.5</v>
+      </c>
+      <c r="D44">
+        <v>21.85</v>
+      </c>
+      <c r="E44">
+        <v>24.5</v>
+      </c>
+      <c r="F44">
+        <v>31.49</v>
+      </c>
+      <c r="I44">
+        <v>37.5</v>
+      </c>
+      <c r="J44">
+        <v>45</v>
+      </c>
+      <c r="K44">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>24.23</v>
+      </c>
+      <c r="C45">
+        <v>20.61</v>
+      </c>
+      <c r="D45">
+        <v>21.85</v>
+      </c>
+      <c r="E45">
+        <v>24.5</v>
+      </c>
+      <c r="F45">
+        <v>31.49</v>
+      </c>
+      <c r="J45">
+        <v>45</v>
+      </c>
+      <c r="K45">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>28</v>
+      </c>
+      <c r="C46">
+        <v>20.69</v>
+      </c>
+      <c r="D46">
+        <v>21.89</v>
+      </c>
+      <c r="E46">
+        <v>25</v>
+      </c>
+      <c r="F46">
+        <v>31.49</v>
+      </c>
+      <c r="J46">
+        <v>45</v>
+      </c>
+      <c r="K46">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>30.97</v>
+      </c>
+      <c r="C47">
+        <v>20.74</v>
+      </c>
+      <c r="D47">
+        <v>21.9</v>
+      </c>
+      <c r="E47">
+        <v>25</v>
+      </c>
+      <c r="F47">
+        <v>31.99</v>
+      </c>
+      <c r="J47">
+        <v>45</v>
+      </c>
+      <c r="K47">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>30.99</v>
+      </c>
+      <c r="C48">
+        <v>20.77</v>
+      </c>
+      <c r="D48">
+        <v>21.95</v>
+      </c>
+      <c r="E48">
+        <v>25</v>
+      </c>
+      <c r="F48">
+        <v>31.99</v>
+      </c>
+      <c r="K48">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>30.99</v>
+      </c>
+      <c r="C49">
+        <v>20.77</v>
+      </c>
+      <c r="D49">
+        <v>21.96</v>
+      </c>
+      <c r="E49">
+        <v>25.5</v>
+      </c>
+      <c r="F49">
+        <v>32.99</v>
+      </c>
+      <c r="K49">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>31.22</v>
+      </c>
+      <c r="C50">
+        <v>20.83</v>
+      </c>
+      <c r="D50">
+        <v>22.05</v>
+      </c>
+      <c r="E50">
+        <v>25.85</v>
+      </c>
+      <c r="F50">
+        <v>32.99</v>
+      </c>
+      <c r="K50">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>31.27</v>
+      </c>
+      <c r="C51">
+        <v>20.84</v>
+      </c>
+      <c r="D51">
+        <v>22.06</v>
+      </c>
+      <c r="E51">
+        <v>26</v>
+      </c>
+      <c r="F51">
+        <v>32.99</v>
+      </c>
+      <c r="K51">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>31.47</v>
+      </c>
+      <c r="C52">
+        <v>20.9</v>
+      </c>
+      <c r="D52">
+        <v>22.18</v>
+      </c>
+      <c r="E52">
+        <v>26</v>
+      </c>
+      <c r="F52">
+        <v>32.99</v>
+      </c>
+      <c r="K52">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>31.47</v>
+      </c>
+      <c r="C53">
+        <v>20.9</v>
+      </c>
+      <c r="D53">
+        <v>22.22</v>
+      </c>
+      <c r="E53">
+        <v>26.25</v>
+      </c>
+      <c r="F53">
+        <v>32.99</v>
+      </c>
+      <c r="K53">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>31.47</v>
+      </c>
+      <c r="C54">
+        <v>20.95</v>
+      </c>
+      <c r="D54">
+        <v>22.22</v>
+      </c>
+      <c r="E54">
+        <v>27</v>
+      </c>
+      <c r="F54">
+        <v>32.99</v>
+      </c>
+      <c r="K54">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>31.49</v>
+      </c>
+      <c r="C55">
+        <v>20.96</v>
+      </c>
+      <c r="D55">
+        <v>22.39</v>
+      </c>
+      <c r="E55">
+        <v>27.5</v>
+      </c>
+      <c r="F55">
+        <v>32.99</v>
+      </c>
+      <c r="K55">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>32</v>
+      </c>
+      <c r="C56">
+        <v>20.98</v>
+      </c>
+      <c r="D56">
+        <v>22.39</v>
+      </c>
+      <c r="E56">
+        <v>28.8</v>
+      </c>
+      <c r="F56">
+        <v>32.99</v>
+      </c>
+      <c r="K56">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C57">
+        <v>20.99</v>
+      </c>
+      <c r="D57">
+        <v>22.49</v>
+      </c>
+      <c r="E57">
+        <v>31.48</v>
+      </c>
+      <c r="F57">
+        <v>32.99</v>
+      </c>
+      <c r="K57">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>32.229999999999997</v>
+      </c>
+      <c r="C58">
+        <v>20.99</v>
+      </c>
+      <c r="D58">
+        <v>22.49</v>
+      </c>
+      <c r="E58">
+        <v>31.49</v>
+      </c>
+      <c r="F58">
+        <v>32.99</v>
+      </c>
+      <c r="K58">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>32.24</v>
+      </c>
+      <c r="C59">
+        <v>21</v>
+      </c>
+      <c r="D59">
+        <v>22.49</v>
+      </c>
+      <c r="E59">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F59">
+        <v>32.99</v>
+      </c>
+      <c r="K59">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>32.74</v>
+      </c>
+      <c r="C60">
+        <v>21</v>
+      </c>
+      <c r="D60">
+        <v>22.82</v>
+      </c>
+      <c r="E60">
+        <v>33.28</v>
+      </c>
+      <c r="F60">
+        <v>32.99</v>
+      </c>
+      <c r="K60">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>32.96</v>
+      </c>
+      <c r="C61">
+        <v>21.03</v>
+      </c>
+      <c r="D61">
+        <v>22.9</v>
+      </c>
+      <c r="E61">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="F61">
+        <v>32.99</v>
+      </c>
+      <c r="K61">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>33.25</v>
+      </c>
+      <c r="C62">
+        <v>21.11</v>
+      </c>
+      <c r="D62">
+        <v>22.94</v>
+      </c>
+      <c r="E62">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="F62">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="C63">
+        <v>21.12</v>
+      </c>
+      <c r="D63">
+        <v>22.99</v>
+      </c>
+      <c r="E63">
+        <v>34</v>
+      </c>
+      <c r="F63">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>34</v>
+      </c>
+      <c r="C64">
+        <v>21.14</v>
+      </c>
+      <c r="D64">
+        <v>22.99</v>
+      </c>
+      <c r="E64">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="F64">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>34.450000000000003</v>
+      </c>
+      <c r="C65">
+        <v>21.35</v>
+      </c>
+      <c r="D65">
+        <v>22.99</v>
+      </c>
+      <c r="E65">
+        <v>35</v>
+      </c>
+      <c r="F65">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>34.94</v>
+      </c>
+      <c r="C66">
+        <v>21.41</v>
+      </c>
+      <c r="D66">
+        <v>22.99</v>
+      </c>
+      <c r="E66">
+        <v>35</v>
+      </c>
+      <c r="F66">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="C67">
+        <v>21.43</v>
+      </c>
+      <c r="D67">
+        <v>22.99</v>
+      </c>
+      <c r="E67">
+        <v>35</v>
+      </c>
+      <c r="F67">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>35.89</v>
+      </c>
+      <c r="C68">
+        <v>21.45</v>
+      </c>
+      <c r="D68">
+        <v>22.99</v>
+      </c>
+      <c r="E68">
+        <v>35.880000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>36.4</v>
+      </c>
+      <c r="C69">
+        <v>21.5</v>
+      </c>
+      <c r="D69">
+        <v>22.99</v>
+      </c>
+      <c r="E69">
+        <v>35.94</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="C70">
+        <v>21.65</v>
+      </c>
+      <c r="D70">
+        <v>22.99</v>
+      </c>
+      <c r="E70">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>37.49</v>
+      </c>
+      <c r="C71">
+        <v>21.8</v>
+      </c>
+      <c r="D71">
+        <v>22.99</v>
+      </c>
+      <c r="E71">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>42.4</v>
+      </c>
+      <c r="C72">
+        <v>21.82</v>
+      </c>
+      <c r="D72">
+        <v>22.99</v>
+      </c>
+      <c r="E72">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>42.42</v>
+      </c>
+      <c r="C73">
+        <v>21.82</v>
+      </c>
+      <c r="D73">
+        <v>22.99</v>
+      </c>
+      <c r="E73">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>21.84</v>
+      </c>
+      <c r="D74">
+        <v>23.2</v>
+      </c>
+      <c r="E74">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>21.88</v>
+      </c>
+      <c r="D75">
+        <v>23.21</v>
+      </c>
+      <c r="E75">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <v>21.9</v>
+      </c>
+      <c r="D76">
+        <v>23.99</v>
+      </c>
+      <c r="E76">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>21.92</v>
+      </c>
+      <c r="D77">
+        <v>23.99</v>
+      </c>
+      <c r="E77">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <v>21.96</v>
+      </c>
+      <c r="D78">
+        <v>23.99</v>
+      </c>
+      <c r="E78">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <v>21.98</v>
+      </c>
+      <c r="D79">
+        <v>23.99</v>
+      </c>
+      <c r="E79">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <v>22.08</v>
+      </c>
+      <c r="D80">
+        <v>24</v>
+      </c>
+      <c r="E80">
+        <v>36.950000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <v>22.17</v>
+      </c>
+      <c r="D81">
+        <v>24.14</v>
+      </c>
+      <c r="E81">
+        <v>36.979999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <v>22.31</v>
+      </c>
+      <c r="D82">
+        <v>24.19</v>
+      </c>
+      <c r="E82">
+        <v>37.29</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <v>22.5</v>
+      </c>
+      <c r="D83">
+        <v>24.23</v>
+      </c>
+      <c r="E83">
+        <v>37.74</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <v>22.5</v>
+      </c>
+      <c r="D84">
+        <v>27</v>
+      </c>
+      <c r="E84">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <v>22.82</v>
+      </c>
+      <c r="D85">
+        <v>30.29</v>
+      </c>
+      <c r="E85">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <v>22.88</v>
+      </c>
+      <c r="D86">
+        <v>30.29</v>
+      </c>
+      <c r="E86">
+        <v>39.89</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C87">
+        <v>22.98</v>
+      </c>
+      <c r="D87">
+        <v>30.3</v>
+      </c>
+      <c r="E87">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <v>23.18</v>
+      </c>
+      <c r="D88">
+        <v>30.33</v>
+      </c>
+      <c r="E88">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <v>23.2</v>
+      </c>
+      <c r="D89">
+        <v>30.41</v>
+      </c>
+      <c r="E89">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <v>23.2</v>
+      </c>
+      <c r="D90">
+        <v>30.59</v>
+      </c>
+      <c r="E90">
+        <v>45.99</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <v>23.9</v>
+      </c>
+      <c r="D91">
+        <v>30.78</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <v>24.16</v>
+      </c>
+      <c r="D92">
+        <v>30.79</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <v>24.2</v>
+      </c>
+      <c r="D93">
+        <v>30.86</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <v>26.97</v>
+      </c>
+      <c r="D94">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <v>30</v>
+      </c>
+      <c r="D95">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <v>30</v>
+      </c>
+      <c r="D96">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <v>30</v>
+      </c>
+      <c r="D97">
+        <v>30.95</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <v>30</v>
+      </c>
+      <c r="D98">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <v>30</v>
+      </c>
+      <c r="D99">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <v>30.07</v>
+      </c>
+      <c r="D100">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C101">
+        <v>30.25</v>
+      </c>
+      <c r="D101">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <v>30.3</v>
+      </c>
+      <c r="D102">
+        <v>31.02</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C103">
+        <v>30.3</v>
+      </c>
+      <c r="D103">
+        <v>31.24</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C104">
+        <v>30.3</v>
+      </c>
+      <c r="D104">
+        <v>31.27</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <v>30.3</v>
+      </c>
+      <c r="D105">
+        <v>31.28</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <v>30.3</v>
+      </c>
+      <c r="D106">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C107">
+        <v>30.38</v>
+      </c>
+      <c r="D107">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C108">
+        <v>30.4</v>
+      </c>
+      <c r="D108">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C109">
+        <v>30.8</v>
+      </c>
+      <c r="D109">
+        <v>31.31</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C110">
+        <v>30.8</v>
+      </c>
+      <c r="D110">
+        <v>31.44</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C111">
+        <v>30.8</v>
+      </c>
+      <c r="D111">
+        <v>31.47</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C112">
+        <v>30.83</v>
+      </c>
+      <c r="D112">
+        <v>31.49</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C113">
+        <v>30.87</v>
+      </c>
+      <c r="D113">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C114">
+        <v>30.9</v>
+      </c>
+      <c r="D114">
+        <v>31.99</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C115">
+        <v>30.9</v>
+      </c>
+      <c r="D115">
+        <v>31.99</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C116">
+        <v>30.9</v>
+      </c>
+      <c r="D116">
+        <v>31.99</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C117">
+        <v>30.9</v>
+      </c>
+      <c r="D117">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C118">
+        <v>30.92</v>
+      </c>
+      <c r="D118">
+        <v>32.15</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C119">
+        <v>30.95</v>
+      </c>
+      <c r="D119">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C120">
+        <v>30.97</v>
+      </c>
+      <c r="D120">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C121">
+        <v>30.97</v>
+      </c>
+      <c r="D121">
+        <v>32.32</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C122">
+        <v>30.99</v>
+      </c>
+      <c r="D122">
+        <v>32.340000000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C123">
+        <v>30.99</v>
+      </c>
+      <c r="D123">
+        <v>32.47</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C124">
+        <v>30.99</v>
+      </c>
+      <c r="D124">
+        <v>32.47</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C125">
+        <v>31.1</v>
+      </c>
+      <c r="D125">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C126">
+        <v>31.17</v>
+      </c>
+      <c r="D126">
+        <v>32.729999999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C127">
+        <v>31.2</v>
+      </c>
+      <c r="D127">
+        <v>32.869999999999997</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C128">
+        <v>31.2</v>
+      </c>
+      <c r="D128">
+        <v>32.89</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C129">
+        <v>31.24</v>
+      </c>
+      <c r="D129">
+        <v>32.950000000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C130">
+        <v>31.25</v>
+      </c>
+      <c r="D130">
+        <v>32.96</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C131">
+        <v>31.27</v>
+      </c>
+      <c r="D131">
+        <v>32.979999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C132">
+        <v>31.27</v>
+      </c>
+      <c r="D132">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C133">
+        <v>31.39</v>
+      </c>
+      <c r="D133">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C134">
+        <v>31.44</v>
+      </c>
+      <c r="D134">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C135">
+        <v>31.96</v>
+      </c>
+      <c r="D135">
+        <v>33.22</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C136">
+        <v>31.96</v>
+      </c>
+      <c r="D136">
+        <v>33.32</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C137">
+        <v>32</v>
+      </c>
+      <c r="D137">
+        <v>33.47</v>
+      </c>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C138">
+        <v>32.119999999999997</v>
+      </c>
+      <c r="D138">
+        <v>33.49</v>
+      </c>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C139">
+        <v>32.17</v>
+      </c>
+      <c r="D139">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C140">
+        <v>32.32</v>
+      </c>
+      <c r="D140">
+        <v>33.78</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C141">
+        <v>32.44</v>
+      </c>
+      <c r="D141">
+        <v>33.979999999999997</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C142">
+        <v>32.44</v>
+      </c>
+      <c r="D142">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C143">
+        <v>32.67</v>
+      </c>
+      <c r="D143">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C144">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="D144">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C145">
+        <v>32.96</v>
+      </c>
+      <c r="D145">
+        <v>34.44</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C146">
+        <v>32.99</v>
+      </c>
+      <c r="D146">
+        <v>34.880000000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C147">
+        <v>33.33</v>
+      </c>
+      <c r="D147">
+        <v>35.89</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C148">
+        <v>33.33</v>
+      </c>
+      <c r="D148">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C149">
+        <v>33.33</v>
+      </c>
+      <c r="D149">
+        <v>35.99</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C150">
+        <v>33.479999999999997</v>
+      </c>
+      <c r="D150">
+        <v>36.35</v>
+      </c>
+    </row>
+    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C151">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="D151">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C152">
+        <v>33.96</v>
+      </c>
+      <c r="D152">
+        <v>36.950000000000003</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C153">
+        <v>33.99</v>
+      </c>
+      <c r="D153">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="154" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C154">
+        <v>34.85</v>
+      </c>
+      <c r="D154">
+        <v>39.369999999999997</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C155">
+        <v>35.65</v>
+      </c>
+      <c r="D155">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C156">
+        <v>35.96</v>
+      </c>
+      <c r="D156">
+        <v>40.99</v>
+      </c>
+    </row>
+    <row r="157" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C157">
+        <v>35.99</v>
+      </c>
+      <c r="D157">
+        <v>42.38</v>
+      </c>
+    </row>
+    <row r="158" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C158">
+        <v>36.32</v>
+      </c>
+      <c r="D158">
+        <v>42.42</v>
+      </c>
+    </row>
+    <row r="159" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C159">
+        <v>36.5</v>
+      </c>
+      <c r="D159">
+        <v>43.34</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C160">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D160">
+        <v>76.75</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C161">
+        <v>36.92</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C162">
+        <v>36.99</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C163">
+        <v>38.340000000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C164">
+        <v>39.340000000000003</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C165">
+        <v>39.96</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C166">
+        <v>63.63</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="O2:O200">
+    <sortCondition ref="O2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1206,59 +3954,47 @@
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>22.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
-        <v>21.06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>21.42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1266,7 +4002,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1284,10 +4020,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1296,26 +4032,23 @@
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1323,18 +4056,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
-        <v>21.08</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1342,7 +4072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1350,7 +4080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1368,10 +4098,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1380,26 +4110,23 @@
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1407,7 +4134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1415,7 +4142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1423,7 +4150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1431,7 +4158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1449,10 +4176,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1461,26 +4188,23 @@
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1488,7 +4212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1496,7 +4220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1504,7 +4228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1512,7 +4236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1530,9 +4254,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1540,26 +4266,23 @@
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1567,7 +4290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1575,7 +4298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1583,7 +4306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1591,7 +4314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1609,10 +4332,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1621,26 +4344,23 @@
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1648,7 +4368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1656,7 +4376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1664,7 +4384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1672,7 +4392,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1690,9 +4410,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1700,26 +4422,23 @@
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1727,18 +4446,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1746,7 +4462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1754,7 +4470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1772,10 +4488,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1784,26 +4500,23 @@
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1811,18 +4524,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1830,7 +4540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1838,7 +4548,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
